--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\ejercicio1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\ejercicio1\sosa_ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1144-6A52-4D79-9C04-5A8C8921A77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Columna1</t>
   </si>
@@ -81,12 +82,15 @@
   </si>
   <si>
     <t>Datos Personales</t>
+  </si>
+  <si>
+    <t>Cambios agregados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,11 +166,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:B14" totalsRowShown="0">
-  <autoFilter ref="A6:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A6:B15" totalsRowShown="0">
+  <autoFilter ref="A6:B15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Columna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +528,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\ejercicio1\sosa_ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1144-6A52-4D79-9C04-5A8C8921A77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C7781B-25DD-4785-B3C0-78B5B5795D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,12 +120,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +154,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +538,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
